--- a/Field.xlsx
+++ b/Field.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfernandez/Desktop/Work/PostDoc Geomar 2018-2021/Chemtax/Chemtax_R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfernandez/HPLC_Chemtax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74754438-A379-5E4B-B444-E8C882AED25C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DE7013-8D4B-C149-9BEF-37B67A043B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{26D2470A-F4CA-9A4B-83D5-2D0EA00D5BA8}"/>
   </bookViews>
